--- a/LubanTool/Config/Datas/skill.xlsx
+++ b/LubanTool/Config/Datas/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YANG\YangTool\LubanTool\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEA0C5E-1533-48A6-804C-FB38A6E023FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620BD089-F34B-4629-9D20-C40618DF9318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="915" windowWidth="23805" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="915" windowWidth="25770" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -218,6 +218,22 @@
   </si>
   <si>
     <t>Skill_1002</t>
+  </si>
+  <si>
+    <t>skill.AtkData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -714,7 +730,7 @@
   <dimension ref="A1:AL18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -723,7 +739,7 @@
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="7" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.5" style="1" customWidth="1"/>
     <col min="9" max="10" width="16.625" style="1" bestFit="1" customWidth="1"/>
@@ -865,7 +881,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>40</v>
@@ -1051,8 +1067,8 @@
       <c r="D6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="20">
-        <v>1</v>
+      <c r="E6" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="F6" s="20">
         <v>1</v>
@@ -1098,11 +1114,11 @@
       <c r="D7" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="20">
-        <v>10</v>
+      <c r="E7" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="F7" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="20">
         <v>5</v>
@@ -1145,11 +1161,11 @@
       <c r="D8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="20">
-        <v>100</v>
+      <c r="E8" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="F8" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="20">
         <v>5</v>
